--- a/sudoku.xlsx
+++ b/sudoku.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHubFolders\Algorithms-with-Python-SoftUni-July-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3AD3CE-FC6B-4DF3-BF6B-5BB88BE8BD0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5550342-B30B-4F8F-B294-4746FF6F4CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5DD87909-74DF-4DE3-9664-0C321346B8A7}"/>
   </bookViews>
@@ -216,54 +216,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,424 +571,433 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D35F45-6095-4E88-BFAA-43F25EC50BAB}">
-  <dimension ref="D2:V20"/>
+  <dimension ref="E2:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="8" width="4.28515625" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" customWidth="1"/>
-    <col min="10" max="20" width="4.28515625" customWidth="1"/>
-    <col min="22" max="22" width="18.28515625" customWidth="1"/>
+    <col min="1" max="4" width="9.140625" style="4"/>
+    <col min="5" max="8" width="4.28515625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" style="4" customWidth="1"/>
+    <col min="10" max="20" width="4.28515625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="4"/>
+    <col min="22" max="22" width="18.28515625" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="L2" s="6" t="s">
+    <row r="2" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="L2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-    </row>
-    <row r="3" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="L3" s="5">
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+    </row>
+    <row r="3" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="L3" s="4">
         <v>0</v>
       </c>
-      <c r="M3" s="5">
-        <v>1</v>
-      </c>
-      <c r="N3" s="5">
-        <v>2</v>
-      </c>
-      <c r="O3" s="5">
+      <c r="M3" s="4">
+        <v>1</v>
+      </c>
+      <c r="N3" s="4">
+        <v>2</v>
+      </c>
+      <c r="O3" s="4">
         <v>3</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="4">
         <v>4</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="4">
         <v>5</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="4">
         <v>6</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="4">
         <v>7</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="1"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5">
+    <row r="4" spans="5:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="L4" s="4">
         <v>0</v>
       </c>
-      <c r="M4" s="5">
-        <v>1</v>
-      </c>
-      <c r="N4" s="5">
-        <v>2</v>
-      </c>
-      <c r="O4" s="5">
+      <c r="M4" s="4">
+        <v>1</v>
+      </c>
+      <c r="N4" s="4">
+        <v>2</v>
+      </c>
+      <c r="O4" s="4">
         <v>0</v>
       </c>
-      <c r="P4" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>2</v>
-      </c>
-      <c r="R4" s="5">
+      <c r="P4" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>2</v>
+      </c>
+      <c r="R4" s="4">
         <v>0</v>
       </c>
-      <c r="S4" s="5">
-        <v>1</v>
-      </c>
-      <c r="T4" s="5">
-        <v>2</v>
-      </c>
-      <c r="V4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D5" s="1"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="S4" s="4">
+        <v>1</v>
+      </c>
+      <c r="T4" s="4">
+        <v>2</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
         <v>0</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <v>0</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="5">
         <v>5</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="6">
         <v>3</v>
       </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="9">
+      <c r="N5" s="7"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="6">
         <v>7</v>
       </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="10"/>
-      <c r="V5" t="s">
+      <c r="Q5" s="7"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="7"/>
+      <c r="V5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D6" s="1"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="3">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1</v>
-      </c>
-      <c r="L6" s="11">
+    <row r="6" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="8">
         <v>6</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="11">
-        <v>1</v>
-      </c>
-      <c r="P6" s="2">
+      <c r="M6" s="1"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="8">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
         <v>9</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="9">
         <v>5</v>
       </c>
-      <c r="R6" s="11"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="12"/>
-    </row>
-    <row r="7" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="1"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="3">
-        <v>2</v>
-      </c>
-      <c r="K7" s="3">
-        <v>2</v>
-      </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="14">
+      <c r="R6" s="8"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="9"/>
+    </row>
+    <row r="7" spans="5:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="11">
         <v>9</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7" s="12">
         <v>8</v>
       </c>
-      <c r="O7" s="13"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="14">
+      <c r="O7" s="10"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="11">
         <v>6</v>
       </c>
-      <c r="T7" s="15"/>
-    </row>
-    <row r="8" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D8" s="1"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="3">
+      <c r="T7" s="12"/>
+    </row>
+    <row r="8" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="2">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>0</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="5">
         <v>8</v>
       </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="9">
+      <c r="M8" s="6"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="6">
         <v>6</v>
       </c>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="10">
+      <c r="Q8" s="7"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D9" s="1"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="3">
+    <row r="9" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="2">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
-        <v>1</v>
-      </c>
-      <c r="L9" s="11">
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="8">
         <v>4</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="11">
+      <c r="M9" s="1"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="8">
         <v>8</v>
       </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="12">
+      <c r="P9" s="1"/>
+      <c r="Q9" s="9">
         <v>3</v>
       </c>
-      <c r="R9" s="11"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="3">
+      <c r="R9" s="8"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="5:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="2">
         <v>5</v>
       </c>
-      <c r="K10" s="3">
-        <v>2</v>
-      </c>
-      <c r="L10" s="13">
+      <c r="K10" s="2">
+        <v>2</v>
+      </c>
+      <c r="L10" s="10">
         <v>7</v>
       </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="14">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="15">
+      <c r="M10" s="11"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="12">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="3">
+    <row r="11" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="2">
         <v>6</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>0</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="9">
+      <c r="L11" s="5"/>
+      <c r="M11" s="6">
         <v>6</v>
       </c>
-      <c r="N11" s="10"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="8">
-        <v>2</v>
-      </c>
-      <c r="S11" s="9">
+      <c r="N11" s="7"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="5">
+        <v>2</v>
+      </c>
+      <c r="S11" s="6">
         <v>8</v>
       </c>
-      <c r="T11" s="10"/>
-    </row>
-    <row r="12" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="3">
+      <c r="T11" s="7"/>
+    </row>
+    <row r="12" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="2">
         <v>7</v>
       </c>
-      <c r="K12" s="3">
-        <v>1</v>
-      </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="11">
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="8">
         <v>4</v>
       </c>
-      <c r="P12" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="12">
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="9">
         <v>9</v>
       </c>
-      <c r="R12" s="11"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="12">
+      <c r="R12" s="8"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="3">
+    <row r="13" spans="5:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="2">
         <v>8</v>
       </c>
-      <c r="K13" s="3">
-        <v>2</v>
-      </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="14">
+      <c r="K13" s="2">
+        <v>2</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="11">
         <v>8</v>
       </c>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="14">
+      <c r="Q13" s="12"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="11">
         <v>7</v>
       </c>
-      <c r="T13" s="15">
+      <c r="T13" s="12">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-    </row>
-    <row r="15" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
+    <row r="14" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="13"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="L16" s="4">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4">
+        <v>2</v>
+      </c>
+      <c r="N16" s="4">
+        <v>3</v>
+      </c>
+      <c r="O16" s="4">
+        <v>4</v>
+      </c>
+      <c r="P16" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>6</v>
+      </c>
+      <c r="R16" s="4">
+        <v>7</v>
+      </c>
+      <c r="S16" s="4">
+        <v>8</v>
+      </c>
+      <c r="T16" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
